--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2455571.999170447</v>
+        <v>2453319.919459239</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>48.26762293258433</v>
+        <v>92.72329049755695</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>41.05669261393875</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4.543542378764921</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>28.93420885558167</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316079</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>54.05027546551501</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>105.6685336178179</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091497</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777569</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>184.3755225607029</v>
       </c>
     </row>
     <row r="11">
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406096</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977442</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127826</v>
       </c>
       <c r="H34" t="n">
-        <v>1.799772605717012</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428251</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788180311</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135853</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>103.8784673763412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2024.960096412931</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649823</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649823</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.099428388743</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.960096412931</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>699.120390387711</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>916.2975690719577</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>724.611684898784</v>
       </c>
       <c r="T4" t="n">
-        <v>699.120390387711</v>
+        <v>502.84506946831</v>
       </c>
       <c r="U4" t="n">
-        <v>699.120390387711</v>
+        <v>502.84506946831</v>
       </c>
       <c r="V4" t="n">
-        <v>699.120390387711</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>699.120390387711</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>699.120390387711</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.120390387711</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392149</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>552.8079389392149</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>552.8079389392149</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>831.0565485757129</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>541.953681701357</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="X7" t="n">
-        <v>831.0565485757129</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.0565485757129</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4790,7 +4790,7 @@
         <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,49 +4799,49 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
         <v>2420.282606282261</v>
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.750018008651</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.750018008651</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>252.750018008651</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5832,10 +5832,10 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,34 +6005,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.5840502527391</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>95.5840502527391</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438167</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216009</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793926</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348533</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121652</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121652</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121652</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121652</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487568</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -6956,10 +6956,10 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492579</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121652</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F37" t="n">
-        <v>261.012762333092</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M39" t="n">
-        <v>691.195150674524</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597628</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597628</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597628</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597628</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746428</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168409</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,28 +7397,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908938</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,16 +7643,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>365.940507157679</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7813,7 +7813,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487568</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.505489761035</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664494</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864873</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038519</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850953</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>41.54258064659004</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625538.6147597551</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597552</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.202397278</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.583971892</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26445,7 +26445,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189193</v>
@@ -26454,7 +26454,7 @@
         <v>16046.58397189196</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26491,16 +26491,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482188</v>
+        <v>-893968.0587482182</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.686979374</v>
+        <v>434776.6869793735</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793738</v>
+        <v>434776.6869793739</v>
       </c>
       <c r="E6" t="n">
-        <v>182957.0391566005</v>
+        <v>182922.3012311648</v>
       </c>
       <c r="F6" t="n">
-        <v>508369.5009639559</v>
+        <v>508334.76303852</v>
       </c>
       <c r="G6" t="n">
-        <v>508369.5009639557</v>
+        <v>508334.76303852</v>
       </c>
       <c r="H6" t="n">
-        <v>508369.5009639555</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="I6" t="n">
-        <v>508369.5009639556</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="J6" t="n">
-        <v>290838.298566678</v>
+        <v>290803.5606412426</v>
       </c>
       <c r="K6" t="n">
-        <v>508369.5009639558</v>
+        <v>508334.7630385204</v>
       </c>
       <c r="L6" t="n">
-        <v>508369.5009639559</v>
+        <v>508334.7630385198</v>
       </c>
       <c r="M6" t="n">
-        <v>423314.473028444</v>
+        <v>423279.735103008</v>
       </c>
       <c r="N6" t="n">
-        <v>508369.5009639559</v>
+        <v>508334.7630385198</v>
       </c>
       <c r="O6" t="n">
-        <v>508369.5009639556</v>
+        <v>508334.7630385198</v>
       </c>
       <c r="P6" t="n">
-        <v>508369.5009639557</v>
+        <v>508334.7630385198</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>317.0052688384232</v>
+        <v>272.5496012734506</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>126.1901284846891</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>84.3886102912824</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>377.9418368861297</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244457</v>
       </c>
     </row>
     <row r="6">
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>113.1965456331128</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>146.4691097060101</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047043</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.454344692378</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>34.20913079139186</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.761884095931661e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-5.63549605858722e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.353712668104585e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32245,7 +32245,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460027</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614906</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565758</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,37 +33494,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,34 +33734,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663277</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33980,25 +33980,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34235,7 +34235,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,34 +34445,34 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394724</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121313</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37008,7 +37008,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.165419911356</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
